--- a/Documentation/Dandelion Assets.xlsx
+++ b/Documentation/Dandelion Assets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/Documents/Work/Projects/Dandelion/dandelion/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A207CC00-BC59-DE49-B6A1-3A92E32EC8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A437ECF-D75E-EF48-A78E-D4E0C81E57E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="106">
   <si>
     <t>Dandelion Image Requirements</t>
   </si>
@@ -179,9 +179,6 @@
     <t>Home Page Image</t>
   </si>
   <si>
-    <t>650x350</t>
-  </si>
-  <si>
     <t xml:space="preserve">The Banner image for the Home page of the site. </t>
   </si>
   <si>
@@ -200,9 +197,6 @@
     <t>Current Text</t>
   </si>
   <si>
-    <t>Text</t>
-  </si>
-  <si>
     <t>Heading</t>
   </si>
   <si>
@@ -273,13 +267,85 @@
   </si>
   <si>
     <t>Soaking Experiment Icon</t>
+  </si>
+  <si>
+    <t>N/A - dependent on image choice.</t>
+  </si>
+  <si>
+    <t>Alt Text</t>
+  </si>
+  <si>
+    <t>A map of Scotland on a pink background. Clicking this navigates to the Map page.</t>
+  </si>
+  <si>
+    <t>A plus icon on an orange background. Clicking this navigates to the Add Reading page.</t>
+  </si>
+  <si>
+    <t>A chart icon on a yellow background. Clicking this navigates to the Data page.</t>
+  </si>
+  <si>
+    <t>A school icon on a green background. Clicking this navigates to the School page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A question mark icon a purple background. Clicking this navigates to the Instructions page. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An illustration of the Lemon Balm plant. </t>
+  </si>
+  <si>
+    <t>An illustration of Lettuce leaves.</t>
+  </si>
+  <si>
+    <t>An illustration of Chives.</t>
+  </si>
+  <si>
+    <t>An illustration of the Kohl Rabi plant.</t>
+  </si>
+  <si>
+    <t>An illustration of a Sunflower.</t>
+  </si>
+  <si>
+    <t>An illustration of a Beetroot.</t>
+  </si>
+  <si>
+    <t>N/A - to be written on design.</t>
+  </si>
+  <si>
+    <t>An illustration of a paintbrush.</t>
+  </si>
+  <si>
+    <t>N/A - will not have alt text. Works as an icon rather than an asset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An image containing the word 'Dandelion' written in a bold white font. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A -dependent on image choice. </t>
+  </si>
+  <si>
+    <t>Replacement Text (if necessary)</t>
+  </si>
+  <si>
+    <t>Data Sub Heading</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>A description of the functions of the Data page.</t>
+  </si>
+  <si>
+    <t>The main text on the Data page - above the project list.</t>
+  </si>
+  <si>
+    <t>On this page you can view projects and their related experiments from all participating schools in the Dandelion Growing Initiative. You can also filter by keywords or project type, search for schools and graph experiment data.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -356,6 +422,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -381,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -408,6 +481,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -629,15 +706,17 @@
   </sheetPr>
   <dimension ref="B1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="29.1640625" customWidth="1"/>
-    <col min="4" max="4" width="80.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="4" max="4" width="86.1640625" customWidth="1"/>
     <col min="5" max="5" width="69" customWidth="1"/>
+    <col min="6" max="6" width="80.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -669,6 +748,9 @@
       <c r="E5" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="F5" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
@@ -683,6 +765,9 @@
       <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="F6" s="5" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
@@ -697,6 +782,9 @@
       <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="F7" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
@@ -711,6 +799,9 @@
       <c r="E8" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="F8" s="5" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="9" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
@@ -725,6 +816,9 @@
       <c r="E9" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="F9" s="5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="10" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
@@ -739,6 +833,9 @@
       <c r="E10" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="F10" s="5" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="11" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
@@ -753,6 +850,9 @@
       <c r="E11" s="5" t="s">
         <v>21</v>
       </c>
+      <c r="F11" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="12" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
@@ -767,6 +867,9 @@
       <c r="E12" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="F12" s="5" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="13" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
@@ -781,6 +884,9 @@
       <c r="E13" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="F13" s="5" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="14" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
@@ -795,6 +901,9 @@
       <c r="E14" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="F14" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -810,6 +919,9 @@
       <c r="E15" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="F15" s="5" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="16" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
@@ -824,8 +936,11 @@
       <c r="E16" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F16" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -838,8 +953,11 @@
       <c r="E17" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F17" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>37</v>
       </c>
@@ -852,10 +970,13 @@
       <c r="E18" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F18" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>34</v>
@@ -866,8 +987,11 @@
       <c r="E19" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F19" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>40</v>
       </c>
@@ -880,8 +1004,11 @@
       <c r="E20" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F20" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>42</v>
       </c>
@@ -894,8 +1021,11 @@
       <c r="E21" s="5" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F21" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>44</v>
       </c>
@@ -908,8 +1038,11 @@
       <c r="E22" s="5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F22" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>47</v>
       </c>
@@ -922,19 +1055,25 @@
       <c r="E23" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F23" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>54</v>
+      <c r="F24" s="5" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -949,23 +1088,23 @@
   </sheetPr>
   <dimension ref="B2:N14"/>
   <sheetViews>
-    <sheetView zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="28.1640625" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="32" customWidth="1"/>
-    <col min="5" max="5" width="48.83203125" customWidth="1"/>
-    <col min="6" max="6" width="85.5" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" customWidth="1"/>
+    <col min="5" max="5" width="49.1640625" customWidth="1"/>
+    <col min="6" max="6" width="86" customWidth="1"/>
     <col min="7" max="7" width="94.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="11"/>
@@ -976,122 +1115,142 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>59</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="E6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="3" t="s">
+      <c r="F11" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>82</v>
-      </c>
+    </row>
+    <row r="12" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="N14" s="3"/>

--- a/Documentation/Dandelion Assets.xlsx
+++ b/Documentation/Dandelion Assets.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/Documents/Work/Projects/Dandelion/dandelion/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaron/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A437ECF-D75E-EF48-A78E-D4E0C81E57E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39D1B9B2-4574-E946-B17E-F67F9A300C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Images" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="122">
   <si>
     <t>Dandelion Image Requirements</t>
   </si>
@@ -269,9 +269,6 @@
     <t>Soaking Experiment Icon</t>
   </si>
   <si>
-    <t>N/A - dependent on image choice.</t>
-  </si>
-  <si>
     <t>Alt Text</t>
   </si>
   <si>
@@ -323,9 +320,6 @@
     <t xml:space="preserve">N/A -dependent on image choice. </t>
   </si>
   <si>
-    <t>Replacement Text (if necessary)</t>
-  </si>
-  <si>
     <t>Data Sub Heading</t>
   </si>
   <si>
@@ -339,13 +333,67 @@
   </si>
   <si>
     <t>On this page you can view projects and their related experiments from all participating schools in the Dandelion Growing Initiative. You can also filter by keywords or project type, search for schools and graph experiment data.</t>
+  </si>
+  <si>
+    <t>Required Changes</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>chart.png</t>
+  </si>
+  <si>
+    <t>map.png</t>
+  </si>
+  <si>
+    <t>add_data.png</t>
+  </si>
+  <si>
+    <t>school_tile.png</t>
+  </si>
+  <si>
+    <t>about_icon.png</t>
+  </si>
+  <si>
+    <t>leaf.png</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>N/A - Dandelion's logo.</t>
+  </si>
+  <si>
+    <t>banner3.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N/A - dependent on image choice. </t>
+  </si>
+  <si>
+    <t>lettuce.jpg</t>
+  </si>
+  <si>
+    <t>chives.jpg</t>
+  </si>
+  <si>
+    <t>kohl.jpg</t>
+  </si>
+  <si>
+    <t>balm.jpg</t>
+  </si>
+  <si>
+    <t>sunflower.jpg</t>
+  </si>
+  <si>
+    <t>beetroot.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -428,6 +476,19 @@
     </font>
     <font>
       <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -454,7 +515,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -486,6 +547,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,17 +769,18 @@
   </sheetPr>
   <dimension ref="B1:N24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="29.1640625" customWidth="1"/>
-    <col min="3" max="3" width="32.1640625" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" customWidth="1"/>
     <col min="4" max="4" width="86.1640625" customWidth="1"/>
     <col min="5" max="5" width="69" customWidth="1"/>
     <col min="6" max="6" width="80.33203125" customWidth="1"/>
+    <col min="7" max="7" width="83.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -739,170 +803,200 @@
       <c r="B5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>83</v>
+      <c r="G5" s="4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="E6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>86</v>
+      <c r="G6" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>84</v>
+      <c r="G7" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>85</v>
+      <c r="G8" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="E9" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>87</v>
+      <c r="G9" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="E10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>88</v>
+      <c r="G10" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>89</v>
+      <c r="G11" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>90</v>
+      <c r="G12" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>91</v>
+      <c r="G13" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>92</v>
+      <c r="G14" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="N14" s="3"/>
     </row>
@@ -910,170 +1004,200 @@
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="E15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>93</v>
+      <c r="G15" s="5" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G17" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>82</v>
+      <c r="C24" s="22" t="s">
+        <v>114</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>99</v>
+      <c r="G24" s="5" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1088,8 +1212,8 @@
   </sheetPr>
   <dimension ref="B2:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="F1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1127,7 +1251,7 @@
         <v>57</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1234,19 +1358,19 @@
     </row>
     <row r="12" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="20" t="s">
         <v>103</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="13" spans="2:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
